--- a/Statistics/chi_square_template.xlsx
+++ b/Statistics/chi_square_template.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00742989\ShareFile\Personal Folders\Business_Stats\Excel Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Excel_fun\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B57C57-2606-4C6A-A9A9-B0DA7705A117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11592"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,29 +682,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" customWidth="1"/>
+    <col min="3" max="3" width="6.53125" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" customWidth="1"/>
     <col min="5" max="11" width="4.6640625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="5.86328125" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" customWidth="1"/>
     <col min="16" max="23" width="4.6640625" customWidth="1"/>
-    <col min="25" max="25" width="7.88671875" customWidth="1"/>
+    <col min="25" max="25" width="7.86328125" customWidth="1"/>
     <col min="26" max="34" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -735,9 +745,9 @@
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B3" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="13">
         <v>25</v>
@@ -768,15 +778,15 @@
       </c>
       <c r="L3" s="5">
         <f>SUM(B3:K3)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3">
         <f>$L3*B$13/$L$13</f>
-        <v>12.58</v>
+        <v>12.25</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:W3" si="0">$L3*C$13/$L$13</f>
-        <v>21.42</v>
+        <v>22.75</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="0"/>
@@ -812,11 +822,11 @@
       </c>
       <c r="Y3" s="3">
         <f>IF(N3=0,0,(B3-N3)^2/N3)</f>
-        <v>1.0187917329093799</v>
+        <v>0.41326530612244899</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ref="Z3:AH3" si="1">IF(O3=0,0,(C3-O3)^2/O3)</f>
-        <v>0.59833800186741304</v>
+        <v>0.22252747252747251</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="1"/>
@@ -851,12 +861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B4" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -884,15 +894,15 @@
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:L12" si="2">SUM(B4:K4)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ref="N4:N12" si="3">$L4*B$13/$L$13</f>
-        <v>8.51</v>
+        <v>8.75</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O12" si="4">$L4*C$13/$L$13</f>
-        <v>14.49</v>
+        <v>16.25</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P12" si="5">$L4*D$13/$L$13</f>
@@ -928,11 +938,11 @@
       </c>
       <c r="Y4" s="3">
         <f t="shared" ref="Y4:Y12" si="13">IF(N4=0,0,(B4-N4)^2/N4)</f>
-        <v>0.74031727379553458</v>
+        <v>1.6071428571428572</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ref="Z4:Z12" si="14">IF(O4=0,0,(C4-O4)^2/O4)</f>
-        <v>0.43478951000690119</v>
+        <v>0.86538461538461542</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ref="AA4:AA12" si="15">IF(P4=0,0,(D4-P4)^2/P4)</f>
@@ -967,12 +977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1000,15 +1010,15 @@
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="3"/>
-        <v>15.91</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="4"/>
-        <v>27.09</v>
+        <v>26</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="5"/>
@@ -1044,11 +1054,11 @@
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="13"/>
-        <v>2.3311187932118163</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" si="14"/>
-        <v>1.3690697674418604</v>
+        <v>1.3846153846153846</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="15"/>
@@ -1083,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" s="13">
         <v>0</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1895,17 +1905,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5">
         <f>SUM(B3:B12)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ref="C13:K13" si="23">SUM(C3:C12)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="23"/>
@@ -1954,14 +1964,14 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="28">
         <f>SUM(Y3:AH12)</f>
-        <v>6.4924250792329055</v>
+        <v>7.0643642072213506</v>
       </c>
       <c r="C16" s="28"/>
       <c r="E16" s="7" t="s">
@@ -1979,7 +1989,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1995,7 +2005,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2030,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="21"/>
     </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2069,14 +2079,14 @@
       <c r="Z20" s="23"/>
       <c r="AA20" s="24"/>
     </row>
-    <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
@@ -2102,46 +2112,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="28">
         <f>_xlfn.CHISQ.DIST.RT(B16,B20)</f>
-        <v>3.8921342064441922E-2</v>
+        <v>2.9241039222391334E-2</v>
       </c>
       <c r="C25" s="28"/>
       <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="30" t="e">
-        <f>_xlfn.CHISQ.TEST(B3:C6,N3:O6)</f>
-        <v>#DIV/0!</v>
+      <c r="B27" s="30">
+        <f>_xlfn.CHISQ.TEST(B3:C5,N3:O5)</f>
+        <v>2.9241039222391334E-2</v>
       </c>
       <c r="C27" s="30"/>
       <c r="E27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
